--- a/Modulation/1mod.xlsx
+++ b/Modulation/1mod.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="1mod — копия" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -7712,8 +7712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17726,6 +17726,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>